--- a/qa/01.测试用例/其他/状态机自动生成/状态机自动生成测试用例.xlsx
+++ b/qa/01.测试用例/其他/状态机自动生成/状态机自动生成测试用例.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamingSpree\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\01.测试用例\其他\状态机自动生成\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="状态机测试" sheetId="3" r:id="rId2"/>
     <sheet name="文档分析&amp;预测试" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="217">
   <si>
     <t>待机</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -605,6 +605,278 @@
   </si>
   <si>
     <t>1.【文档】          之前受击转受击条件是，死亡false，受控false，受击true，现在没有受控那个，这俩有啥区别么</t>
+  </si>
+  <si>
+    <t>状态机测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招炫耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao=true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应勾选has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档，状态机缺失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang=false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利，死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡应false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷懒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loopTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop pose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,7 +1036,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1121,6 +1393,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1128,7 +1437,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,84 +1546,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,24 +1588,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1382,9 +1604,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,243 +1674,123 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="123">
     <dxf>
       <font>
         <b/>
@@ -2832,7 +2931,7 @@
   <dimension ref="B22:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2845,48 +2944,56 @@
   </cols>
   <sheetData>
     <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="74" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="105">
+      <c r="B23" s="75">
         <v>42270</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
     </row>
     <row r="24" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="113"/>
+      <c r="B24" s="80">
+        <v>42298</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="83">
+        <v>4800</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="110"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="115"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2896,11 +3003,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2922,43 +3029,43 @@
     <col min="31" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="U1" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="AD1" s="56" t="s">
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="AD1" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-    </row>
-    <row r="2" spans="1:34" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+    </row>
+    <row r="2" spans="1:36" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2968,8 +3075,8 @@
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3038,21 +3145,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A4" s="84" t="s">
+    <row r="3" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="68"/>
-      <c r="J4" s="43" t="s">
+      <c r="E4" s="43"/>
+      <c r="J4" s="104" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="19" t="s">
@@ -3062,641 +3169,831 @@
         <v>1</v>
       </c>
       <c r="M4" s="15"/>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="97" t="s">
+      <c r="T4" s="67" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="32">
         <v>1</v>
       </c>
       <c r="V4" s="15"/>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
+      <c r="X4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="100" t="s">
+      <c r="AB4" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC4" s="70" t="s">
         <v>0</v>
       </c>
       <c r="AD4" s="32">
         <v>1</v>
       </c>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="80" t="s">
+      <c r="AF4" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A5" s="60"/>
-      <c r="B5" s="90" t="s">
+      <c r="AG4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A5" s="102"/>
+      <c r="B5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="94" t="s">
+      <c r="F5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="105"/>
+      <c r="K5" s="86" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="71"/>
+      <c r="N5" s="46"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="94" t="s">
+      <c r="S5" s="96"/>
+      <c r="T5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="33"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="71"/>
+      <c r="W5" s="46"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="96" t="s">
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="66" t="s">
         <v>13</v>
       </c>
       <c r="AD5" s="33"/>
       <c r="AE5" s="12"/>
-      <c r="AF5" s="71"/>
+      <c r="AF5" s="46"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A6" s="60"/>
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6" s="102"/>
+      <c r="B6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="5"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="57" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="87" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="57" t="s">
+      <c r="S6" s="96"/>
+      <c r="T6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="U6" s="33"/>
       <c r="V6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="71"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="95" t="s">
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="65" t="s">
         <v>1</v>
       </c>
       <c r="AD6" s="33"/>
       <c r="AE6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="5"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A7" s="60"/>
-      <c r="B7" s="90" t="s">
+      <c r="AI6" s="2">
+        <v>992</v>
+      </c>
+      <c r="AJ6" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A7" s="102"/>
+      <c r="B7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="57" t="s">
+      <c r="F7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="105"/>
+      <c r="K7" s="87" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="57" t="s">
+      <c r="S7" s="96"/>
+      <c r="T7" s="40" t="s">
         <v>2</v>
       </c>
       <c r="U7" s="33"/>
       <c r="V7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="71" t="s">
+      <c r="W7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="X7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="96" t="s">
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="66" t="s">
         <v>2</v>
       </c>
       <c r="AD7" s="33"/>
       <c r="AE7" s="12"/>
-      <c r="AF7" s="71"/>
+      <c r="AF7" s="46"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="28"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A8" s="60"/>
-      <c r="B8" s="90" t="s">
+      <c r="AJ7" s="89"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A8" s="102"/>
+      <c r="B8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="94" t="s">
+      <c r="F8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="105"/>
+      <c r="K8" s="86" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="71"/>
+      <c r="N8" s="46"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="57" t="s">
+      <c r="S8" s="96"/>
+      <c r="T8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="U8" s="33"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="V8" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="96" t="s">
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="66" t="s">
         <v>7</v>
       </c>
       <c r="AD8" s="33"/>
       <c r="AE8" s="12"/>
-      <c r="AF8" s="71"/>
+      <c r="AF8" s="46"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="28"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A9" s="60"/>
-      <c r="B9" s="90" t="s">
+      <c r="AJ8" s="89"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A9" s="102"/>
+      <c r="B9" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="94" t="s">
+      <c r="F9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="105"/>
+      <c r="K9" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="71"/>
+      <c r="N9" s="46"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="57" t="s">
+      <c r="S9" s="96"/>
+      <c r="T9" s="40" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="33"/>
       <c r="V9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W9" s="71" t="s">
+      <c r="W9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="X9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="96" t="s">
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="66" t="s">
         <v>3</v>
       </c>
       <c r="AD9" s="33"/>
       <c r="AE9" s="12"/>
-      <c r="AF9" s="71"/>
+      <c r="AF9" s="46"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="28"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A10" s="60"/>
-      <c r="B10" s="90" t="s">
+      <c r="AJ9" s="89"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A10" s="102"/>
+      <c r="B10" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="94" t="s">
+      <c r="F10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="105"/>
+      <c r="K10" s="86" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="71"/>
+      <c r="N10" s="46"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="57" t="s">
+      <c r="S10" s="96"/>
+      <c r="T10" s="40" t="s">
         <v>4</v>
       </c>
       <c r="U10" s="33"/>
       <c r="V10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="W10" s="71" t="s">
+      <c r="W10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="X10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="96" t="s">
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="66" t="s">
         <v>4</v>
       </c>
       <c r="AD10" s="33"/>
       <c r="AE10" s="12"/>
-      <c r="AF10" s="71"/>
+      <c r="AF10" s="46"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="28"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" s="60"/>
-      <c r="B11" s="90" t="s">
+      <c r="AJ10" s="89"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A11" s="102"/>
+      <c r="B11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="94" t="s">
+      <c r="F11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="105"/>
+      <c r="K11" s="86" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="33"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="71"/>
+      <c r="N11" s="46"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="94" t="s">
+      <c r="S11" s="96"/>
+      <c r="T11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="U11" s="33"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="71"/>
+      <c r="W11" s="46"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="96" t="s">
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AD11" s="33"/>
       <c r="AE11" s="12"/>
-      <c r="AF11" s="71"/>
+      <c r="AF11" s="46"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="28"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
-      <c r="B12" s="90" t="s">
+      <c r="AJ11" s="89"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A12" s="102"/>
+      <c r="B12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="94" t="s">
+      <c r="F12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="105"/>
+      <c r="K12" s="86" t="s">
         <v>5</v>
       </c>
       <c r="L12" s="33"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="71"/>
+      <c r="N12" s="46"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="66" t="s">
+      <c r="S12" s="96"/>
+      <c r="T12" s="41" t="s">
         <v>5</v>
       </c>
       <c r="U12" s="33"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="V12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="95" t="s">
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="65" t="s">
         <v>5</v>
       </c>
       <c r="AD12" s="33"/>
       <c r="AE12" s="12"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="5"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="AH12" s="28"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A13" s="60"/>
-      <c r="B13" s="90" t="s">
+      <c r="AI12" s="2">
+        <v>992</v>
+      </c>
+      <c r="AJ12" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A13" s="102"/>
+      <c r="B13" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="94" t="s">
+      <c r="F13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="105"/>
+      <c r="K13" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="71"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="94" t="s">
+      <c r="S13" s="96"/>
+      <c r="T13" s="41" t="s">
         <v>9</v>
       </c>
       <c r="U13" s="33"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="V13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="W13" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="95" t="s">
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="65" t="s">
         <v>9</v>
       </c>
       <c r="AD13" s="33"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="5"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="AH13" s="5"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A14" s="60"/>
-      <c r="B14" s="90" t="s">
+      <c r="AI13" s="2">
+        <v>992</v>
+      </c>
+      <c r="AJ13" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A14" s="102"/>
+      <c r="B14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="94" t="s">
+      <c r="F14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="86" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="71"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="57" t="s">
+      <c r="S14" s="96"/>
+      <c r="T14" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="33"/>
       <c r="V14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="W14" s="71" t="s">
+      <c r="W14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="X14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="96" t="s">
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="66" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="33"/>
       <c r="AE14" s="12"/>
-      <c r="AF14" s="71"/>
+      <c r="AF14" s="46"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" s="60"/>
-      <c r="B15" s="90" t="s">
+      <c r="AJ14" s="89"/>
+    </row>
+    <row r="15" spans="1:36" ht="29" x14ac:dyDescent="0.45">
+      <c r="A15" s="102"/>
+      <c r="B15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="57" t="s">
+      <c r="F15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="105"/>
+      <c r="K15" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="33"/>
       <c r="M15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="94" t="s">
+      <c r="Q15" s="2">
+        <v>989</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S15" s="96"/>
+      <c r="T15" s="41" t="s">
         <v>11</v>
       </c>
       <c r="U15" s="33"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
+      <c r="V15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="W15" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="Z15" s="28"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="95" t="s">
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="65" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="33"/>
       <c r="AE15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF15" s="71" t="s">
+      <c r="AF15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AG15" s="5"/>
+      <c r="AG15" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="AH15" s="5"/>
-    </row>
-    <row r="16" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="61"/>
-      <c r="B16" s="91" t="s">
+      <c r="AI15" s="2">
+        <v>992</v>
+      </c>
+      <c r="AJ15" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="103"/>
+      <c r="B16" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="85" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="92" t="s">
+      <c r="J16" s="106"/>
+      <c r="K16" s="62" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="74"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="N16" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>173</v>
+      </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="98" t="s">
+      <c r="S16" s="97"/>
+      <c r="T16" s="68" t="s">
         <v>6</v>
       </c>
       <c r="U16" s="37"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="V16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="W16" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="101" t="s">
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="71" t="s">
         <v>6</v>
       </c>
       <c r="AD16" s="37"/>
       <c r="AE16" s="13"/>
-      <c r="AF16" s="74"/>
+      <c r="AF16" s="49"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A17" s="79" t="s">
+      <c r="AI16" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A17" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="43" t="s">
+      <c r="H17" s="89">
+        <v>992</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="98" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -3706,581 +4003,653 @@
         <v>1</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="80" t="s">
+      <c r="N17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="43" t="s">
+      <c r="S17" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="97" t="s">
+      <c r="T17" s="67" t="s">
         <v>0</v>
       </c>
       <c r="U17" s="32">
         <v>1</v>
       </c>
       <c r="V17" s="15"/>
-      <c r="W17" s="80" t="s">
+      <c r="W17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="X17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="100" t="s">
+      <c r="AB17" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC17" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AD17" s="15"/>
+      <c r="AD17" s="15">
+        <v>1</v>
+      </c>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="80" t="s">
+      <c r="AF17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A18" s="62"/>
-      <c r="B18" s="77" t="s">
+      <c r="AG17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A18" s="96"/>
+      <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="94" t="s">
+      <c r="J18" s="99"/>
+      <c r="K18" s="86" t="s">
         <v>13</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="71"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="94" t="s">
+      <c r="S18" s="96"/>
+      <c r="T18" s="64" t="s">
         <v>13</v>
       </c>
       <c r="U18" s="33"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="71"/>
+      <c r="W18" s="46"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="96" t="s">
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="66" t="s">
         <v>13</v>
       </c>
       <c r="AD18" s="33"/>
       <c r="AE18" s="12"/>
-      <c r="AF18" s="71"/>
+      <c r="AF18" s="46"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A19" s="62"/>
-      <c r="B19" s="77" t="s">
+    <row r="19" spans="1:36" ht="29" x14ac:dyDescent="0.45">
+      <c r="A19" s="96"/>
+      <c r="B19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="57" t="s">
+      <c r="J19" s="99"/>
+      <c r="K19" s="87" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="71"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="66" t="s">
+      <c r="S19" s="96"/>
+      <c r="T19" s="41" t="s">
         <v>1</v>
       </c>
       <c r="U19" s="33"/>
       <c r="V19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W19" s="71"/>
-      <c r="X19" s="5"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="95" t="s">
+      <c r="Z19" s="2">
+        <v>973</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="65" t="s">
         <v>1</v>
       </c>
       <c r="AD19" s="33"/>
       <c r="AE19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A20" s="62"/>
-      <c r="B20" s="77" t="s">
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A20" s="96"/>
+      <c r="B20" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="94" t="s">
+      <c r="J20" s="99"/>
+      <c r="K20" s="86" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="71"/>
+      <c r="N20" s="46"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="94" t="s">
+      <c r="S20" s="96"/>
+      <c r="T20" s="64" t="s">
         <v>2</v>
       </c>
       <c r="U20" s="33"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="71"/>
+      <c r="W20" s="46"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="96" t="s">
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="66" t="s">
         <v>2</v>
       </c>
       <c r="AD20" s="33"/>
       <c r="AE20" s="12"/>
-      <c r="AF20" s="71"/>
+      <c r="AF20" s="46"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A21" s="62"/>
-      <c r="B21" s="77" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A21" s="96"/>
+      <c r="B21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="57" t="s">
+      <c r="J21" s="99"/>
+      <c r="K21" s="87" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="33"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="M21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>206</v>
+      </c>
       <c r="Q21" s="28"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="94" t="s">
+      <c r="S21" s="96"/>
+      <c r="T21" s="64" t="s">
         <v>7</v>
       </c>
       <c r="U21" s="33"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="71"/>
+      <c r="W21" s="46"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="95" t="s">
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="65" t="s">
         <v>7</v>
       </c>
       <c r="AD21" s="33"/>
       <c r="AE21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AF21" s="71" t="s">
+      <c r="AF21" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="5"/>
+      <c r="AG21" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="AH21" s="5"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A22" s="62"/>
-      <c r="B22" s="77" t="s">
+      <c r="AI21" s="2">
+        <v>992</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A22" s="96"/>
+      <c r="B22" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="94" t="s">
+      <c r="J22" s="99"/>
+      <c r="K22" s="86" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="71"/>
+      <c r="N22" s="46"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="94" t="s">
+      <c r="S22" s="96"/>
+      <c r="T22" s="64" t="s">
         <v>3</v>
       </c>
       <c r="U22" s="33"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="71"/>
+      <c r="W22" s="46"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="96" t="s">
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="66" t="s">
         <v>3</v>
       </c>
       <c r="AD22" s="33"/>
       <c r="AE22" s="12"/>
-      <c r="AF22" s="71"/>
+      <c r="AF22" s="46"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="77" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A23" s="96"/>
+      <c r="B23" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="69"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="71"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="94" t="s">
+      <c r="J23" s="99"/>
+      <c r="K23" s="86" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="71"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="94" t="s">
+      <c r="S23" s="96"/>
+      <c r="T23" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="33"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="71"/>
+      <c r="W23" s="46"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="96" t="s">
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="66" t="s">
         <v>4</v>
       </c>
       <c r="AD23" s="33"/>
       <c r="AE23" s="12"/>
-      <c r="AF23" s="71"/>
+      <c r="AF23" s="46"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="77" t="s">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A24" s="96"/>
+      <c r="B24" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="71"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="94" t="s">
+      <c r="J24" s="99"/>
+      <c r="K24" s="86" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="71"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="94" t="s">
+      <c r="S24" s="96"/>
+      <c r="T24" s="64" t="s">
         <v>8</v>
       </c>
       <c r="U24" s="33"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="71"/>
+      <c r="W24" s="46"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="96" t="s">
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AD24" s="33"/>
       <c r="AE24" s="12"/>
-      <c r="AF24" s="71"/>
+      <c r="AF24" s="46"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A25" s="62"/>
-      <c r="B25" s="77" t="s">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A25" s="96"/>
+      <c r="B25" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="71"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="94" t="s">
+      <c r="J25" s="99"/>
+      <c r="K25" s="86" t="s">
         <v>5</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="71"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="94" t="s">
+      <c r="S25" s="96"/>
+      <c r="T25" s="64" t="s">
         <v>5</v>
       </c>
       <c r="U25" s="33"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="71"/>
+      <c r="W25" s="46"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="96" t="s">
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="66" t="s">
         <v>5</v>
       </c>
       <c r="AD25" s="33"/>
       <c r="AE25" s="12"/>
-      <c r="AF25" s="71"/>
+      <c r="AF25" s="46"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A26" s="62"/>
-      <c r="B26" s="77" t="s">
+    <row r="26" spans="1:36" ht="29" x14ac:dyDescent="0.45">
+      <c r="A26" s="96"/>
+      <c r="B26" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="94" t="s">
+      <c r="J26" s="99"/>
+      <c r="K26" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="71"/>
+      <c r="N26" s="46"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="57" t="s">
+      <c r="S26" s="96"/>
+      <c r="T26" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U26" s="33"/>
       <c r="V26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="W26" s="71" t="s">
+      <c r="W26" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="X26" s="5"/>
+      <c r="X26" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="96" t="s">
+      <c r="Z26" s="2">
+        <v>972</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="66" t="s">
         <v>9</v>
       </c>
       <c r="AD26" s="33"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="71"/>
+      <c r="AF26" s="46"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A27" s="62"/>
-      <c r="B27" s="77" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A27" s="96"/>
+      <c r="B27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="71"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="94" t="s">
+      <c r="J27" s="99"/>
+      <c r="K27" s="86" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="71"/>
+      <c r="N27" s="46"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="94" t="s">
+      <c r="S27" s="96"/>
+      <c r="T27" s="64" t="s">
         <v>10</v>
       </c>
       <c r="U27" s="33"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="71"/>
+      <c r="W27" s="46"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="96" t="s">
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="66" t="s">
         <v>10</v>
       </c>
       <c r="AD27" s="33"/>
       <c r="AE27" s="12"/>
-      <c r="AF27" s="71"/>
+      <c r="AF27" s="46"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A28" s="62"/>
-      <c r="B28" s="77" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A28" s="96"/>
+      <c r="B28" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="57" t="s">
+      <c r="J28" s="99"/>
+      <c r="K28" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="33"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="M28" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>205</v>
+      </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="94" t="s">
+      <c r="S28" s="96"/>
+      <c r="T28" s="64" t="s">
         <v>11</v>
       </c>
       <c r="U28" s="33"/>
       <c r="V28" s="12"/>
-      <c r="W28" s="71"/>
+      <c r="W28" s="46"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="95" t="s">
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AD28" s="33">
-        <v>1</v>
-      </c>
+      <c r="AD28" s="33"/>
       <c r="AE28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AF28" s="71" t="s">
+      <c r="AF28" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AG28" s="5"/>
+      <c r="AG28" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="AH28" s="5"/>
-    </row>
-    <row r="29" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="65"/>
-      <c r="B29" s="78" t="s">
+      <c r="AI28" s="2">
+        <v>974</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="97"/>
+      <c r="B29" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="74"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="29" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="37"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="74"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="99" t="s">
+      <c r="S29" s="97"/>
+      <c r="T29" s="69" t="s">
         <v>6</v>
       </c>
       <c r="U29" s="37"/>
       <c r="V29" s="13"/>
-      <c r="W29" s="74"/>
+      <c r="W29" s="49"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="102" t="s">
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="72" t="s">
         <v>6</v>
       </c>
       <c r="AD29" s="37"/>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="74"/>
+      <c r="AF29" s="49"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A30" s="81" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A30" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="J30" s="43" t="s">
+      <c r="E30" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="98" t="s">
         <v>4</v>
       </c>
       <c r="K30" s="19" t="s">
@@ -4290,717 +4659,853 @@
         <v>1</v>
       </c>
       <c r="M30" s="15"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="N30" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="T30" s="97" t="s">
+      <c r="S30" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="T30" s="67" t="s">
         <v>0</v>
       </c>
       <c r="U30" s="32">
         <v>1</v>
       </c>
       <c r="V30" s="15"/>
-      <c r="W30" s="80" t="s">
+      <c r="W30" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
+      <c r="X30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="43" t="s">
+      <c r="AB30" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="100" t="s">
+      <c r="AC30" s="70" t="s">
         <v>0</v>
       </c>
       <c r="AD30" s="32">
         <v>1</v>
       </c>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="80" t="s">
+      <c r="AF30" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AG30" s="5"/>
+      <c r="AG30" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="AH30" s="5"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A31" s="63"/>
-      <c r="B31" s="77" t="s">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A31" s="96"/>
+      <c r="B31" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="71"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="94" t="s">
+      <c r="J31" s="99"/>
+      <c r="K31" s="86" t="s">
         <v>13</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="71"/>
+      <c r="N31" s="46"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="94" t="s">
+      <c r="S31" s="96"/>
+      <c r="T31" s="64" t="s">
         <v>13</v>
       </c>
       <c r="U31" s="33"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="71"/>
+      <c r="W31" s="46"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="96" t="s">
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="66" t="s">
         <v>13</v>
       </c>
       <c r="AD31" s="33"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="71"/>
+      <c r="AF31" s="46"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A32" s="63"/>
-      <c r="B32" s="77" t="s">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A32" s="96"/>
+      <c r="B32" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="57" t="s">
+      <c r="J32" s="99"/>
+      <c r="K32" s="87" t="s">
         <v>1</v>
       </c>
       <c r="L32" s="33"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="M32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="57" t="s">
+      <c r="S32" s="96"/>
+      <c r="T32" s="40" t="s">
         <v>1</v>
       </c>
       <c r="U32" s="33"/>
       <c r="V32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W32" s="71"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="96" t="s">
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="66" t="s">
         <v>1</v>
       </c>
       <c r="AD32" s="33"/>
       <c r="AE32" s="12"/>
-      <c r="AF32" s="71"/>
+      <c r="AF32" s="46"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A33" s="63"/>
-      <c r="B33" s="77" t="s">
+      <c r="A33" s="96"/>
+      <c r="B33" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="71"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="94" t="s">
+      <c r="J33" s="99"/>
+      <c r="K33" s="86" t="s">
         <v>2</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="71"/>
+      <c r="N33" s="46"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="94" t="s">
+      <c r="S33" s="96"/>
+      <c r="T33" s="64" t="s">
         <v>2</v>
       </c>
       <c r="U33" s="33"/>
       <c r="V33" s="12"/>
-      <c r="W33" s="71"/>
+      <c r="W33" s="46"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="96" t="s">
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="66" t="s">
         <v>2</v>
       </c>
       <c r="AD33" s="33"/>
       <c r="AE33" s="12"/>
-      <c r="AF33" s="71"/>
+      <c r="AF33" s="46"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A34" s="63"/>
-      <c r="B34" s="77" t="s">
+      <c r="A34" s="96"/>
+      <c r="B34" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="71"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="57" t="s">
+      <c r="J34" s="99"/>
+      <c r="K34" s="87" t="s">
         <v>7</v>
       </c>
       <c r="L34" s="33"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="M34" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="57" t="s">
+      <c r="S34" s="96"/>
+      <c r="T34" s="40" t="s">
         <v>7</v>
       </c>
       <c r="U34" s="33"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
+      <c r="V34" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="W34" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="X34" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y34" s="28" t="s">
+        <v>173</v>
+      </c>
       <c r="Z34" s="28"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="96" t="s">
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="66" t="s">
         <v>7</v>
       </c>
       <c r="AD34" s="33"/>
       <c r="AE34" s="12"/>
-      <c r="AF34" s="71"/>
+      <c r="AF34" s="46"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A35" s="63"/>
-      <c r="B35" s="77" t="s">
+      <c r="A35" s="96"/>
+      <c r="B35" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="71"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="94" t="s">
+      <c r="J35" s="99"/>
+      <c r="K35" s="86" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="71"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="94" t="s">
+      <c r="S35" s="96"/>
+      <c r="T35" s="64" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="33"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="71"/>
+      <c r="W35" s="46"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="96" t="s">
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="66" t="s">
         <v>3</v>
       </c>
       <c r="AD35" s="33"/>
       <c r="AE35" s="12"/>
-      <c r="AF35" s="71"/>
+      <c r="AF35" s="46"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A36" s="63"/>
-      <c r="B36" s="77" t="s">
+      <c r="A36" s="96"/>
+      <c r="B36" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="71"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="94" t="s">
+      <c r="J36" s="99"/>
+      <c r="K36" s="86" t="s">
         <v>4</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="71"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="94" t="s">
+      <c r="S36" s="96"/>
+      <c r="T36" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U36" s="33"/>
       <c r="V36" s="12"/>
-      <c r="W36" s="71"/>
+      <c r="W36" s="46"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="96" t="s">
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="66" t="s">
         <v>4</v>
       </c>
       <c r="AD36" s="33"/>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="71"/>
+      <c r="AF36" s="46"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A37" s="63"/>
-      <c r="B37" s="77" t="s">
+      <c r="A37" s="96"/>
+      <c r="B37" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="71"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="94" t="s">
+      <c r="J37" s="99"/>
+      <c r="K37" s="86" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="71"/>
+      <c r="N37" s="46"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="94" t="s">
+      <c r="S37" s="96"/>
+      <c r="T37" s="64" t="s">
         <v>8</v>
       </c>
       <c r="U37" s="33"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="71"/>
+      <c r="W37" s="46"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="96" t="s">
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="66" t="s">
         <v>8</v>
       </c>
       <c r="AD37" s="33"/>
       <c r="AE37" s="12"/>
-      <c r="AF37" s="71"/>
+      <c r="AF37" s="46"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A38" s="63"/>
-      <c r="B38" s="77" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="71"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="94" t="s">
+      <c r="J38" s="99"/>
+      <c r="K38" s="86" t="s">
         <v>5</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="71"/>
+      <c r="N38" s="46"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="94" t="s">
+      <c r="S38" s="96"/>
+      <c r="T38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="U38" s="33"/>
       <c r="V38" s="12"/>
-      <c r="W38" s="71"/>
+      <c r="W38" s="46"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="96" t="s">
+      <c r="AB38" s="96"/>
+      <c r="AC38" s="66" t="s">
         <v>5</v>
       </c>
       <c r="AD38" s="33"/>
       <c r="AE38" s="12"/>
-      <c r="AF38" s="71"/>
+      <c r="AF38" s="46"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A39" s="63"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="96"/>
+      <c r="B39" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="71"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="94" t="s">
+      <c r="J39" s="99"/>
+      <c r="K39" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="71"/>
+      <c r="N39" s="46"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="57" t="s">
+      <c r="S39" s="96"/>
+      <c r="T39" s="40" t="s">
         <v>9</v>
       </c>
       <c r="U39" s="33"/>
       <c r="V39" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="W39" s="71" t="s">
+      <c r="W39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
+      <c r="X39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="96" t="s">
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="66" t="s">
         <v>9</v>
       </c>
       <c r="AD39" s="33"/>
       <c r="AE39" s="12"/>
-      <c r="AF39" s="71"/>
+      <c r="AF39" s="46"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A40" s="63"/>
-      <c r="B40" s="77" t="s">
+      <c r="A40" s="96"/>
+      <c r="B40" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="71"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="94" t="s">
+      <c r="J40" s="99"/>
+      <c r="K40" s="86" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="33"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="71"/>
+      <c r="N40" s="46"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="94" t="s">
+      <c r="S40" s="96"/>
+      <c r="T40" s="64" t="s">
         <v>10</v>
       </c>
       <c r="U40" s="33"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="71"/>
+      <c r="W40" s="46"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="96" t="s">
+      <c r="AB40" s="96"/>
+      <c r="AC40" s="66" t="s">
         <v>10</v>
       </c>
       <c r="AD40" s="33"/>
       <c r="AE40" s="12"/>
-      <c r="AF40" s="71"/>
+      <c r="AF40" s="46"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A41" s="63"/>
-      <c r="B41" s="77" t="s">
+      <c r="A41" s="96"/>
+      <c r="B41" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="71"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="57" t="s">
+      <c r="J41" s="99"/>
+      <c r="K41" s="87" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="33"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="M41" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N41" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="Q41" s="28"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="57" t="s">
+      <c r="S41" s="96"/>
+      <c r="T41" s="40" t="s">
         <v>11</v>
       </c>
       <c r="U41" s="33"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
+      <c r="V41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="W41" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="X41" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y41" s="28" t="s">
+        <v>172</v>
+      </c>
       <c r="Z41" s="28"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="96" t="s">
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="66" t="s">
         <v>11</v>
       </c>
       <c r="AD41" s="33"/>
       <c r="AE41" s="12"/>
-      <c r="AF41" s="71"/>
+      <c r="AF41" s="46"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
     </row>
     <row r="42" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="64"/>
-      <c r="B42" s="78" t="s">
+      <c r="A42" s="97"/>
+      <c r="B42" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="74"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="100"/>
       <c r="K42" s="29" t="s">
         <v>6</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="93"/>
+      <c r="N42" s="63"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="99" t="s">
+      <c r="S42" s="97"/>
+      <c r="T42" s="69" t="s">
         <v>6</v>
       </c>
       <c r="U42" s="37"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="74"/>
+      <c r="W42" s="49"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="102" t="s">
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="72" t="s">
         <v>6</v>
       </c>
       <c r="AD42" s="37"/>
       <c r="AE42" s="13"/>
-      <c r="AF42" s="74"/>
+      <c r="AF42" s="49"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="42">
         <v>1</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="80" t="s">
+      <c r="E43" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="AG43" s="5"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="77" t="s">
+      <c r="A44" s="96"/>
+      <c r="B44" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="71"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="77" t="s">
+      <c r="A45" s="96"/>
+      <c r="B45" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="71"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="77" t="s">
+      <c r="A46" s="96"/>
+      <c r="B46" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="71"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="77" t="s">
+      <c r="A47" s="96"/>
+      <c r="B47" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="69"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="71"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="96"/>
+      <c r="B48" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="69"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="71"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="77" t="s">
+      <c r="A49" s="96"/>
+      <c r="B49" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="69"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="71"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="77" t="s">
+      <c r="A50" s="96"/>
+      <c r="B50" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="69"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="71"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="96"/>
+      <c r="B51" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="69"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="71"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="77" t="s">
+      <c r="A52" s="96"/>
+      <c r="B52" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="69"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="71"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="77" t="s">
+      <c r="A53" s="96"/>
+      <c r="B53" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="69"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="71"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="77" t="s">
+      <c r="A54" s="96"/>
+      <c r="B54" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="69"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="71"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="78" t="s">
+      <c r="A55" s="97"/>
+      <c r="B55" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="75"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="74"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="91"/>
+      <c r="B59" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="90">
+        <v>1</v>
+      </c>
+      <c r="C60" s="90">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="90">
+        <v>1</v>
+      </c>
+      <c r="C61" s="90">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="90">
+        <v>1</v>
+      </c>
+      <c r="C62" s="90">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="90">
+        <v>1</v>
+      </c>
+      <c r="C63" s="90">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="90">
+        <v>1</v>
+      </c>
+      <c r="C64" s="90">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="J30:J42"/>
-    <mergeCell ref="S30:S42"/>
-    <mergeCell ref="AB30:AB42"/>
-    <mergeCell ref="A43:A55"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="A4:A16"/>
     <mergeCell ref="J4:J16"/>
     <mergeCell ref="S4:S16"/>
@@ -5009,22 +5514,165 @@
     <mergeCell ref="J17:J29"/>
     <mergeCell ref="S17:S29"/>
     <mergeCell ref="AB17:AB29"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="J30:J42"/>
+    <mergeCell ref="S30:S42"/>
+    <mergeCell ref="AB30:AB42"/>
+    <mergeCell ref="A43:A55"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="AA4:AA42 R30:R42">
-    <cfRule type="cellIs" dxfId="92" priority="59" operator="equal">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="R30:R42 X4:Z18 X19:Y19 X20:Z25 X27:Z33 X26:Y26 AA4:AA42 O4:Q14 O16:Q42 O15:P15 R15">
+    <cfRule type="cellIs" dxfId="122" priority="92" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="93" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA42 R30:R42">
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+  <conditionalFormatting sqref="R30:R42 X4:Z18 X19:Y19 X20:Z25 X27:Z33 X26:Y26 AA4:AA42 O4:Q14 O16:Q42 O15:P15 R15">
+    <cfRule type="cellIs" dxfId="120" priority="91" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Z33 X35:Z40 X42:Z42">
+  <conditionalFormatting sqref="X35:Z40 X42:Z42">
+    <cfRule type="cellIs" dxfId="119" priority="65" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="66" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35:Z40 X42:Z42">
+    <cfRule type="cellIs" dxfId="117" priority="64" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F42">
+    <cfRule type="cellIs" dxfId="116" priority="86" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="87" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F42">
+    <cfRule type="cellIs" dxfId="114" priority="85" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R14 R16:R29">
+    <cfRule type="cellIs" dxfId="113" priority="83" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="84" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R14 R16:R29">
+    <cfRule type="cellIs" dxfId="111" priority="82" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F55">
+    <cfRule type="cellIs" dxfId="110" priority="71" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="72" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F55">
+    <cfRule type="cellIs" dxfId="108" priority="70" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4:AH6 AH13:AH42">
+    <cfRule type="cellIs" dxfId="107" priority="62" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="63" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4:AH6 AH13:AH42">
+    <cfRule type="cellIs" dxfId="105" priority="61" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34:Z34">
+    <cfRule type="cellIs" dxfId="104" priority="59" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="60" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34:Z34">
+    <cfRule type="cellIs" dxfId="102" priority="58" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X41:Z41">
+    <cfRule type="cellIs" dxfId="101" priority="56" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="57" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X41:Z41">
+    <cfRule type="cellIs" dxfId="99" priority="55" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7:AH12">
+    <cfRule type="cellIs" dxfId="98" priority="53" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="54" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7:AH12">
+    <cfRule type="cellIs" dxfId="96" priority="52" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G53">
+    <cfRule type="cellIs" dxfId="95" priority="50" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="51" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G53">
+    <cfRule type="cellIs" dxfId="93" priority="49" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4:AG43">
+    <cfRule type="cellIs" dxfId="92" priority="35" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="36" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4:AG43">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="89" priority="32" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -5032,129 +5680,129 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Z33 X35:Z40 X42:Z42">
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F42">
-    <cfRule type="cellIs" dxfId="86" priority="53" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="86" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F42">
-    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R29">
-    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R29">
-    <cfRule type="cellIs" dxfId="81" priority="49" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="81" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F55">
-    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="80" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F55">
-    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:Q42">
-    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="77" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:Q42">
-    <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AH6 AH13:AH42">
-    <cfRule type="cellIs" dxfId="74" priority="29" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AH6 AH13:AH42">
-    <cfRule type="cellIs" dxfId="72" priority="28" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34:Z34">
-    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="71" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34:Z34">
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X41:Z41">
-    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X41:Z41">
-    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH12">
-    <cfRule type="cellIs" dxfId="65" priority="20" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH12">
-    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G53">
-    <cfRule type="cellIs" dxfId="62" priority="17" operator="equal">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G53">
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG43">
+  <conditionalFormatting sqref="D60:D64">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -5162,12 +5810,13 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG43">
+  <conditionalFormatting sqref="D60:D64">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5175,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
@@ -5314,7 +5963,7 @@
     </row>
     <row r="2" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="32"/>
@@ -5324,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="110" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="32">
@@ -5350,7 +5999,7 @@
         <v>109</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="110" t="s">
         <v>8</v>
       </c>
       <c r="V3" s="32">
@@ -5376,7 +6025,7 @@
         <v>24</v>
       </c>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="43" t="s">
+      <c r="AE3" s="110" t="s">
         <v>10</v>
       </c>
       <c r="AF3" s="32">
@@ -5403,7 +6052,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A4" s="41"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="33"/>
       <c r="C4" s="10" t="s">
         <v>14</v>
@@ -5427,7 +6076,7 @@
       <c r="J4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="33"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -5439,7 +6088,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="44"/>
+      <c r="U4" s="111"/>
       <c r="V4" s="33"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -5451,7 +6100,7 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="44"/>
+      <c r="AE4" s="111"/>
       <c r="AF4" s="33"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
@@ -5464,7 +6113,7 @@
       <c r="AM4" s="5"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="41"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="33"/>
       <c r="C5" s="10" t="s">
         <v>15</v>
@@ -5485,7 +6134,7 @@
       <c r="I5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="33"/>
       <c r="M5" s="12" t="s">
         <v>62</v>
@@ -5507,7 +6156,7 @@
         <v>24</v>
       </c>
       <c r="T5" s="5"/>
-      <c r="U5" s="44"/>
+      <c r="U5" s="111"/>
       <c r="V5" s="33"/>
       <c r="W5" s="12" t="s">
         <v>55</v>
@@ -5529,7 +6178,7 @@
         <v>120</v>
       </c>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="44"/>
+      <c r="AE5" s="111"/>
       <c r="AF5" s="33"/>
       <c r="AG5" s="12" t="s">
         <v>37</v>
@@ -5552,7 +6201,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="29" x14ac:dyDescent="0.45">
-      <c r="A6" s="41"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="33"/>
       <c r="C6" s="10" t="s">
         <v>35</v>
@@ -5575,7 +6224,7 @@
       <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="33"/>
       <c r="M6" s="12" t="s">
         <v>66</v>
@@ -5601,7 +6250,7 @@
       <c r="T6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="111"/>
       <c r="V6" s="33"/>
       <c r="W6" s="12" t="s">
         <v>76</v>
@@ -5625,7 +6274,7 @@
         <v>24</v>
       </c>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="44"/>
+      <c r="AE6" s="111"/>
       <c r="AF6" s="33"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
@@ -5638,7 +6287,7 @@
       <c r="AM6" s="5"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" s="41"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
         <v>16</v>
@@ -5661,7 +6310,7 @@
       <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="33"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -5673,7 +6322,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="44"/>
+      <c r="U7" s="111"/>
       <c r="V7" s="33"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -5693,7 +6342,7 @@
         <v>26</v>
       </c>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="44"/>
+      <c r="AE7" s="111"/>
       <c r="AF7" s="33"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
@@ -5705,7 +6354,7 @@
       <c r="AL7" s="28"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A8" s="41"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="33"/>
       <c r="C8" s="10" t="s">
         <v>17</v>
@@ -5728,7 +6377,7 @@
       <c r="I8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="111"/>
       <c r="L8" s="33"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -5740,7 +6389,7 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="44"/>
+      <c r="U8" s="111"/>
       <c r="V8" s="33"/>
       <c r="W8" s="12" t="s">
         <v>71</v>
@@ -5764,7 +6413,7 @@
         <v>24</v>
       </c>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="44"/>
+      <c r="AE8" s="111"/>
       <c r="AF8" s="33"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
@@ -5776,7 +6425,7 @@
       <c r="AL8" s="28"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A9" s="41"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="33"/>
       <c r="C9" s="10" t="s">
         <v>4</v>
@@ -5799,7 +6448,7 @@
       <c r="I9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="33"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -5811,7 +6460,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="44"/>
+      <c r="U9" s="111"/>
       <c r="V9" s="33"/>
       <c r="W9" s="12" t="s">
         <v>72</v>
@@ -5835,7 +6484,7 @@
         <v>109</v>
       </c>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="44"/>
+      <c r="AE9" s="111"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
@@ -5847,7 +6496,7 @@
       <c r="AL9" s="28"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10" s="41"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="33"/>
       <c r="C10" s="10" t="s">
         <v>18</v>
@@ -5870,7 +6519,7 @@
       <c r="I10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="33"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -5882,7 +6531,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="44"/>
+      <c r="U10" s="111"/>
       <c r="V10" s="33"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -5894,7 +6543,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="44"/>
+      <c r="AE10" s="111"/>
       <c r="AF10" s="33"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
@@ -5906,7 +6555,7 @@
       <c r="AL10" s="28"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11" s="41"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -5929,7 +6578,7 @@
       <c r="I11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="44"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="33"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -5941,7 +6590,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="44"/>
+      <c r="U11" s="111"/>
       <c r="V11" s="33"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -5961,7 +6610,7 @@
         <v>24</v>
       </c>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="44"/>
+      <c r="AE11" s="111"/>
       <c r="AF11" s="33"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
@@ -5985,7 +6634,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="41"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="33"/>
       <c r="C12" s="10" t="s">
         <v>20</v>
@@ -6008,7 +6657,7 @@
       <c r="I12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="33"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -6020,7 +6669,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="44"/>
+      <c r="U12" s="111"/>
       <c r="V12" s="33"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -6034,7 +6683,7 @@
         <v>116</v>
       </c>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="44"/>
+      <c r="AE12" s="111"/>
       <c r="AF12" s="33"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
@@ -6052,7 +6701,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" s="41"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="33"/>
       <c r="C13" s="10" t="s">
         <v>10</v>
@@ -6075,7 +6724,7 @@
       <c r="I13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="33"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -6087,7 +6736,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="44"/>
+      <c r="U13" s="111"/>
       <c r="V13" s="33"/>
       <c r="W13" s="12" t="s">
         <v>77</v>
@@ -6111,7 +6760,7 @@
         <v>121</v>
       </c>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="44"/>
+      <c r="AE13" s="111"/>
       <c r="AF13" s="33"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
@@ -6124,7 +6773,7 @@
       <c r="AM13" s="28"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" s="41"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="33"/>
       <c r="C14" s="10" t="s">
         <v>21</v>
@@ -6147,7 +6796,7 @@
       <c r="I14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="44"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="33"/>
       <c r="M14" s="12" t="s">
         <v>63</v>
@@ -6171,7 +6820,7 @@
         <v>24</v>
       </c>
       <c r="T14" s="5"/>
-      <c r="U14" s="44"/>
+      <c r="U14" s="111"/>
       <c r="V14" s="33"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -6183,7 +6832,7 @@
       <c r="AB14" s="28"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="44"/>
+      <c r="AE14" s="111"/>
       <c r="AF14" s="33"/>
       <c r="AG14" s="12" t="s">
         <v>95</v>
@@ -6208,7 +6857,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="29" x14ac:dyDescent="0.45">
-      <c r="A15" s="49"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="33"/>
       <c r="C15" s="10" t="s">
         <v>12</v>
@@ -6231,7 +6880,7 @@
       <c r="I15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="45"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="33"/>
       <c r="M15" s="12" t="s">
         <v>64</v>
@@ -6255,7 +6904,7 @@
       <c r="T15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U15" s="45"/>
+      <c r="U15" s="112"/>
       <c r="V15" s="33"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -6275,7 +6924,7 @@
         <v>24</v>
       </c>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="45"/>
+      <c r="AE15" s="112"/>
       <c r="AF15" s="33"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
@@ -6288,7 +6937,7 @@
       <c r="AM15" s="5"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="117" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="34"/>
@@ -6314,7 +6963,7 @@
       <c r="J16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="113" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="34">
@@ -6340,7 +6989,7 @@
         <v>24</v>
       </c>
       <c r="T16" s="5"/>
-      <c r="U16" s="46" t="s">
+      <c r="U16" s="113" t="s">
         <v>5</v>
       </c>
       <c r="V16" s="34">
@@ -6366,7 +7015,7 @@
         <v>122</v>
       </c>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="46" t="s">
+      <c r="AE16" s="113" t="s">
         <v>11</v>
       </c>
       <c r="AF16" s="11"/>
@@ -6394,7 +7043,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="51"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="33"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -6405,7 +7054,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="111"/>
       <c r="L17" s="33"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -6417,7 +7066,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="111"/>
       <c r="V17" s="33"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -6429,7 +7078,7 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="44"/>
+      <c r="AE17" s="111"/>
       <c r="AF17" s="33"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
@@ -6442,7 +7091,7 @@
       <c r="AM17" s="5"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="51"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="33"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -6453,7 +7102,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="111"/>
       <c r="L18" s="33"/>
       <c r="M18" s="12" t="s">
         <v>38</v>
@@ -6475,7 +7124,7 @@
         <v>108</v>
       </c>
       <c r="T18" s="5"/>
-      <c r="U18" s="44"/>
+      <c r="U18" s="111"/>
       <c r="V18" s="33"/>
       <c r="W18" s="12" t="s">
         <v>37</v>
@@ -6497,7 +7146,7 @@
         <v>103</v>
       </c>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="44"/>
+      <c r="AE18" s="111"/>
       <c r="AF18" s="33"/>
       <c r="AG18" s="12" t="s">
         <v>90</v>
@@ -6520,7 +7169,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="29" x14ac:dyDescent="0.45">
-      <c r="A19" s="51"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -6531,7 +7180,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="33"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -6545,7 +7194,7 @@
       <c r="T19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="U19" s="44"/>
+      <c r="U19" s="111"/>
       <c r="V19" s="33"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
@@ -6557,7 +7206,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="44"/>
+      <c r="AE19" s="111"/>
       <c r="AF19" s="33"/>
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
@@ -6570,7 +7219,7 @@
       <c r="AM19" s="5"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="51"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="33"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -6581,7 +7230,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="33"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -6603,7 +7252,7 @@
       <c r="T20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="U20" s="44"/>
+      <c r="U20" s="111"/>
       <c r="V20" s="33"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -6615,7 +7264,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="44"/>
+      <c r="AE20" s="111"/>
       <c r="AF20" s="33"/>
       <c r="AG20" s="12" t="s">
         <v>91</v>
@@ -6640,7 +7289,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A21" s="51"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="33"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -6651,7 +7300,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="111"/>
       <c r="L21" s="33"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -6663,7 +7312,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="44"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="33"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -6675,7 +7324,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="44"/>
+      <c r="AE21" s="111"/>
       <c r="AF21" s="33"/>
       <c r="AG21" s="12"/>
       <c r="AH21" s="12"/>
@@ -6688,7 +7337,7 @@
       <c r="AM21" s="5"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A22" s="51"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="33"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -6699,7 +7348,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="K22" s="44"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="33"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -6711,7 +7360,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="44"/>
+      <c r="U22" s="111"/>
       <c r="V22" s="33"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
@@ -6723,7 +7372,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="44"/>
+      <c r="AE22" s="111"/>
       <c r="AF22" s="33"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="12"/>
@@ -6736,7 +7385,7 @@
       <c r="AM22" s="5"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="51"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="33"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -6747,7 +7396,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="K23" s="44"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="33"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -6759,7 +7408,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="44"/>
+      <c r="U23" s="111"/>
       <c r="V23" s="33"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -6771,7 +7420,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="44"/>
+      <c r="AE23" s="111"/>
       <c r="AF23" s="33"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="12"/>
@@ -6784,7 +7433,7 @@
       <c r="AM23" s="5"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A24" s="51"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="33"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -6795,7 +7444,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="K24" s="44"/>
+      <c r="K24" s="111"/>
       <c r="L24" s="33"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -6807,7 +7456,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="44"/>
+      <c r="U24" s="111"/>
       <c r="V24" s="33"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
@@ -6819,7 +7468,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="44"/>
+      <c r="AE24" s="111"/>
       <c r="AF24" s="33"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="12"/>
@@ -6832,7 +7481,7 @@
       <c r="AM24" s="5"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A25" s="51"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="33"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -6843,7 +7492,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="K25" s="44"/>
+      <c r="K25" s="111"/>
       <c r="L25" s="33"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -6855,7 +7504,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="44"/>
+      <c r="U25" s="111"/>
       <c r="V25" s="33"/>
       <c r="W25" s="12" t="s">
         <v>88</v>
@@ -6879,7 +7528,7 @@
         <v>24</v>
       </c>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="44"/>
+      <c r="AE25" s="111"/>
       <c r="AF25" s="33"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
@@ -6892,7 +7541,7 @@
       <c r="AM25" s="5"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="51"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="33"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -6903,7 +7552,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="K26" s="44"/>
+      <c r="K26" s="111"/>
       <c r="L26" s="33"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -6915,7 +7564,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="44"/>
+      <c r="U26" s="111"/>
       <c r="V26" s="33"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -6927,7 +7576,7 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="44"/>
+      <c r="AE26" s="111"/>
       <c r="AF26" s="33"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
@@ -6940,7 +7589,7 @@
       <c r="AM26" s="5"/>
     </row>
     <row r="27" spans="1:40" ht="29" x14ac:dyDescent="0.45">
-      <c r="A27" s="51"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="33"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -6951,7 +7600,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="111"/>
       <c r="L27" s="33"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -6973,7 +7622,7 @@
       <c r="T27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="U27" s="44"/>
+      <c r="U27" s="111"/>
       <c r="V27" s="33"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
@@ -6985,7 +7634,7 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="44"/>
+      <c r="AE27" s="111"/>
       <c r="AF27" s="33">
         <v>1</v>
       </c>
@@ -7015,7 +7664,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A28" s="52"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="33"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -7026,7 +7675,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="112"/>
       <c r="L28" s="33"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -7038,7 +7687,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="45"/>
+      <c r="U28" s="112"/>
       <c r="V28" s="33"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
@@ -7050,7 +7699,7 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="45"/>
+      <c r="AE28" s="112"/>
       <c r="AF28" s="33"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
@@ -7063,7 +7712,7 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="120" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="34"/>
@@ -7076,7 +7725,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="K29" s="46" t="s">
+      <c r="K29" s="113" t="s">
         <v>4</v>
       </c>
       <c r="L29" s="34">
@@ -7100,7 +7749,7 @@
         <v>24</v>
       </c>
       <c r="T29" s="5"/>
-      <c r="U29" s="46" t="s">
+      <c r="U29" s="113" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="34">
@@ -7126,7 +7775,7 @@
         <v>24</v>
       </c>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="46" t="s">
+      <c r="AE29" s="113" t="s">
         <v>6</v>
       </c>
       <c r="AF29" s="34">
@@ -7153,7 +7802,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A30" s="54"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="35"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -7164,7 +7813,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="111"/>
       <c r="L30" s="33"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -7176,7 +7825,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="44"/>
+      <c r="U30" s="111"/>
       <c r="V30" s="33"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
@@ -7188,7 +7837,7 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="44"/>
+      <c r="AE30" s="111"/>
       <c r="AF30" s="33"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
@@ -7201,7 +7850,7 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="1:40" ht="29" x14ac:dyDescent="0.45">
-      <c r="A31" s="54"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="35"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -7212,7 +7861,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="111"/>
       <c r="L31" s="33"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -7232,7 +7881,7 @@
         <v>24</v>
       </c>
       <c r="T31" s="5"/>
-      <c r="U31" s="44"/>
+      <c r="U31" s="111"/>
       <c r="V31" s="33"/>
       <c r="W31" s="12" t="s">
         <v>37</v>
@@ -7256,7 +7905,7 @@
       <c r="AD31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AE31" s="44"/>
+      <c r="AE31" s="111"/>
       <c r="AF31" s="33"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="12"/>
@@ -7269,7 +7918,7 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A32" s="54"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="35"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -7280,7 +7929,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="44"/>
+      <c r="K32" s="111"/>
       <c r="L32" s="33"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -7292,7 +7941,7 @@
       <c r="R32" s="28"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="44"/>
+      <c r="U32" s="111"/>
       <c r="V32" s="33"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
@@ -7304,7 +7953,7 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="44"/>
+      <c r="AE32" s="111"/>
       <c r="AF32" s="33"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -7316,7 +7965,7 @@
       <c r="AL32" s="5"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A33" s="54"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="35"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -7327,7 +7976,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="K33" s="44"/>
+      <c r="K33" s="111"/>
       <c r="L33" s="33"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -7347,7 +7996,7 @@
         <v>123</v>
       </c>
       <c r="T33" s="5"/>
-      <c r="U33" s="44"/>
+      <c r="U33" s="111"/>
       <c r="V33" s="33"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
@@ -7367,7 +8016,7 @@
         <v>24</v>
       </c>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="44"/>
+      <c r="AE33" s="111"/>
       <c r="AF33" s="33"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
@@ -7379,7 +8028,7 @@
       <c r="AL33" s="5"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A34" s="54"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="35"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -7390,7 +8039,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="K34" s="44"/>
+      <c r="K34" s="111"/>
       <c r="L34" s="33"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -7402,7 +8051,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="44"/>
+      <c r="U34" s="111"/>
       <c r="V34" s="33"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
@@ -7414,7 +8063,7 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="44"/>
+      <c r="AE34" s="111"/>
       <c r="AF34" s="33"/>
       <c r="AG34" s="12"/>
       <c r="AH34" s="12"/>
@@ -7426,7 +8075,7 @@
       <c r="AL34" s="5"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A35" s="54"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="35"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -7437,7 +8086,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="K35" s="44"/>
+      <c r="K35" s="111"/>
       <c r="L35" s="33"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -7449,7 +8098,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="44"/>
+      <c r="U35" s="111"/>
       <c r="V35" s="33"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
@@ -7461,7 +8110,7 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="44"/>
+      <c r="AE35" s="111"/>
       <c r="AF35" s="33"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -7473,7 +8122,7 @@
       <c r="AL35" s="5"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A36" s="54"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="35"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7484,7 +8133,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="K36" s="44"/>
+      <c r="K36" s="111"/>
       <c r="L36" s="33"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -7496,7 +8145,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="44"/>
+      <c r="U36" s="111"/>
       <c r="V36" s="33"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
@@ -7508,7 +8157,7 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="44"/>
+      <c r="AE36" s="111"/>
       <c r="AF36" s="33"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
@@ -7520,7 +8169,7 @@
       <c r="AL36" s="5"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A37" s="54"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="35"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7531,7 +8180,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="111"/>
       <c r="L37" s="33"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -7543,7 +8192,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="44"/>
+      <c r="U37" s="111"/>
       <c r="V37" s="33"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
@@ -7555,7 +8204,7 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="44"/>
+      <c r="AE37" s="111"/>
       <c r="AF37" s="33"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
@@ -7567,7 +8216,7 @@
       <c r="AL37" s="5"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A38" s="54"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="35"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7578,7 +8227,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="K38" s="44"/>
+      <c r="K38" s="111"/>
       <c r="L38" s="33"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -7590,7 +8239,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="44"/>
+      <c r="U38" s="111"/>
       <c r="V38" s="33"/>
       <c r="W38" s="12" t="s">
         <v>88</v>
@@ -7614,7 +8263,7 @@
         <v>24</v>
       </c>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="44"/>
+      <c r="AE38" s="111"/>
       <c r="AF38" s="33"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
@@ -7626,7 +8275,7 @@
       <c r="AL38" s="5"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A39" s="54"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="35"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7637,7 +8286,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="K39" s="44"/>
+      <c r="K39" s="111"/>
       <c r="L39" s="33"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -7649,7 +8298,7 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="44"/>
+      <c r="U39" s="111"/>
       <c r="V39" s="33"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
@@ -7661,7 +8310,7 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="44"/>
+      <c r="AE39" s="111"/>
       <c r="AF39" s="33"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
@@ -7673,7 +8322,7 @@
       <c r="AL39" s="5"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A40" s="54"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="35"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7684,7 +8333,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="K40" s="44"/>
+      <c r="K40" s="111"/>
       <c r="L40" s="33"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -7704,7 +8353,7 @@
         <v>24</v>
       </c>
       <c r="T40" s="5"/>
-      <c r="U40" s="44"/>
+      <c r="U40" s="111"/>
       <c r="V40" s="33"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
@@ -7724,7 +8373,7 @@
         <v>103</v>
       </c>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="44"/>
+      <c r="AE40" s="111"/>
       <c r="AF40" s="33"/>
       <c r="AG40" s="12"/>
       <c r="AH40" s="12"/>
@@ -7736,7 +8385,7 @@
       <c r="AL40" s="5"/>
     </row>
     <row r="41" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="55"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="36"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -7747,7 +8396,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="K41" s="47"/>
+      <c r="K41" s="114"/>
       <c r="L41" s="37"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -7759,7 +8408,7 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="47"/>
+      <c r="U41" s="114"/>
       <c r="V41" s="37"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
@@ -7771,7 +8420,7 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="47"/>
+      <c r="AE41" s="114"/>
       <c r="AF41" s="37"/>
       <c r="AG41" s="13"/>
       <c r="AH41" s="13"/>
@@ -7783,7 +8432,7 @@
       <c r="AL41" s="5"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="107" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="34">
@@ -7810,7 +8459,7 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="33"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7823,7 +8472,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="33"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -7836,7 +8485,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="33"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -7849,7 +8498,7 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="33"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7862,7 +8511,7 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="33"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7875,7 +8524,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="33"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -7888,7 +8537,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="33"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -7901,7 +8550,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="33"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -7914,7 +8563,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="33"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -7927,7 +8576,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="33"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7940,7 +8589,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="33"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -7952,7 +8601,7 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
+      <c r="A54" s="109"/>
       <c r="B54" s="37"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
